--- a/doc/results.xlsx
+++ b/doc/results.xlsx
@@ -690,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C5CD78-6FD4-4B06-8A20-86EE3971775F}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B51" sqref="B1:B51"/>
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1386,6 +1386,9 @@
       <c r="B41">
         <v>1</v>
       </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
       <c r="D41" t="s">
         <v>76</v>
       </c>
@@ -1561,6 +1564,26 @@
       </c>
       <c r="E51" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <f>SUM(B2:B51)</f>
+        <v>46.5</v>
+      </c>
+      <c r="C52">
+        <f>SUM(C2:C51)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <f>B52/50</f>
+        <v>0.93</v>
+      </c>
+      <c r="C53">
+        <f>C52/50</f>
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>
